--- a/biology/Botanique/Ribes_sachalinense/Ribes_sachalinense.xlsx
+++ b/biology/Botanique/Ribes_sachalinense/Ribes_sachalinense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groseillier de Sakhaline (Ribes sachalinense) est un arbuste de la famille des grossulariacées originaire de Sibérie orientale.
 Nom Russe : Смородина сахалинская
@@ -512,9 +524,11 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le basionyme de cette espèce est maintenant un synonyme : Ribes affine var. sachalinense F.Schmidt (1874)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le basionyme de cette espèce est maintenant un synonyme : Ribes affine var. sachalinense F.Schmidt (1874).
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groseillier de Sakhaline un arbuste caduc, ne dépassant guère un mètre de haut.
 Les feuilles sont tri ou pentalobées et irrégulièrement crénelées-dentelées, presque glabres.
 Les fleurs sont en grappes plus ou moins dressées, de couleur rose-pruine.
 Les fruits, pouvant atteindre 0,5 cm de diamètre, sont rouges à maturité et comestibles.
-Cette espèce compte 16 chromosomes[2].
+Cette espèce compte 16 chromosomes.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La provenance de cet arbuste est la Sibérie orientale, en particulier de l'île de Sakhaline, ce qui est à l'origine de l'épithète spécifique. Il est présent en Chine et au Japon.
 Son habitat est forestier ou semi-forestier et ripisylve, en milieu relativement humide.
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est parfaitement consommable, relativement acide et d'un goût agréable.
 Cette espèce n'est cependant pas répandue en France tant en usage fruitier qu'ornemental.
